--- a/data/pca/factorExposure/factorExposure_2012-01-12.xlsx
+++ b/data/pca/factorExposure/factorExposure_2012-01-12.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,18 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +717,48 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.01532663376549165</v>
+        <v>0.01517884985931722</v>
       </c>
       <c r="C2">
-        <v>0.03096095807756708</v>
+        <v>-0.026185196611099</v>
       </c>
       <c r="D2">
-        <v>0.01692247121947792</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.01742581938179263</v>
+      </c>
+      <c r="E2">
+        <v>-0.01687891711370417</v>
+      </c>
+      <c r="F2">
+        <v>0.02451794138536952</v>
+      </c>
+      <c r="G2">
+        <v>0.002222615066981773</v>
+      </c>
+      <c r="H2">
+        <v>0.04409461598956968</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,24 +769,48 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.07432917458688432</v>
+        <v>0.08890370260161687</v>
       </c>
       <c r="C4">
-        <v>0.0516477581830791</v>
+        <v>-0.03813100582083376</v>
       </c>
       <c r="D4">
-        <v>0.08413560895561491</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.06827116618371414</v>
+      </c>
+      <c r="E4">
+        <v>-0.007175405596786749</v>
+      </c>
+      <c r="F4">
+        <v>0.03692501892616652</v>
+      </c>
+      <c r="G4">
+        <v>0.005817611762776543</v>
+      </c>
+      <c r="H4">
+        <v>-0.03590677661614205</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +821,308 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.112710670994747</v>
+        <v>0.1235456902301517</v>
       </c>
       <c r="C6">
-        <v>0.04929083433031709</v>
+        <v>-0.03394020490246986</v>
       </c>
       <c r="D6">
-        <v>0.004645677728812475</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.01073386646947941</v>
+      </c>
+      <c r="E6">
+        <v>0.02104560275537767</v>
+      </c>
+      <c r="F6">
+        <v>0.05004175321100183</v>
+      </c>
+      <c r="G6">
+        <v>0.0330409393304797</v>
+      </c>
+      <c r="H6">
+        <v>0.1190930116143986</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.05355142301880628</v>
+        <v>0.06319284287227102</v>
       </c>
       <c r="C7">
-        <v>0.02540769077659746</v>
+        <v>-0.0136371341498532</v>
       </c>
       <c r="D7">
-        <v>0.03916705694033026</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.05069777583128897</v>
+      </c>
+      <c r="E7">
+        <v>-0.03384623660415468</v>
+      </c>
+      <c r="F7">
+        <v>0.04427983443182183</v>
+      </c>
+      <c r="G7">
+        <v>-0.0316965050469295</v>
+      </c>
+      <c r="H7">
+        <v>-0.01829750573502083</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.04100523015581348</v>
+        <v>0.04281848327805541</v>
       </c>
       <c r="C8">
-        <v>0.01355699158160262</v>
+        <v>-0.009289709724289738</v>
       </c>
       <c r="D8">
-        <v>0.06136816256437506</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.02528131988197228</v>
+      </c>
+      <c r="E8">
+        <v>-0.0186605846993165</v>
+      </c>
+      <c r="F8">
+        <v>0.06231497122078467</v>
+      </c>
+      <c r="G8">
+        <v>0.06077594138825227</v>
+      </c>
+      <c r="H8">
+        <v>0.01607645310768501</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.06903258103832106</v>
+        <v>0.07982574338302026</v>
       </c>
       <c r="C9">
-        <v>0.03865068796945419</v>
+        <v>-0.02528514278337827</v>
       </c>
       <c r="D9">
-        <v>0.07525952522922512</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.06295447361022201</v>
+      </c>
+      <c r="E9">
+        <v>-0.027524044376039</v>
+      </c>
+      <c r="F9">
+        <v>0.02946580651314413</v>
+      </c>
+      <c r="G9">
+        <v>0.01404050414507256</v>
+      </c>
+      <c r="H9">
+        <v>-0.04621415281914991</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.03187649965590943</v>
+        <v>0.04112723568990295</v>
       </c>
       <c r="C10">
-        <v>0.02719226076486219</v>
+        <v>-0.05192929950934796</v>
       </c>
       <c r="D10">
-        <v>-0.1719309439335509</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.1727129670054155</v>
+      </c>
+      <c r="E10">
+        <v>-0.04073119915870007</v>
+      </c>
+      <c r="F10">
+        <v>0.05501936143342611</v>
+      </c>
+      <c r="G10">
+        <v>-0.02141223148054992</v>
+      </c>
+      <c r="H10">
+        <v>0.03695320278494176</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.07210271587580938</v>
+        <v>0.07671349953907737</v>
       </c>
       <c r="C11">
-        <v>0.04147927876050605</v>
+        <v>-0.02202939144750396</v>
       </c>
       <c r="D11">
-        <v>0.0576453954240512</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.06452963049339418</v>
+      </c>
+      <c r="E11">
+        <v>0.007638352240888173</v>
+      </c>
+      <c r="F11">
+        <v>0.0332239310426645</v>
+      </c>
+      <c r="G11">
+        <v>0.0220563628056419</v>
+      </c>
+      <c r="H11">
+        <v>-0.07450791516681746</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.06112897593735143</v>
+        <v>0.06923747809730897</v>
       </c>
       <c r="C12">
-        <v>0.05050689869623175</v>
+        <v>-0.03400352276463042</v>
       </c>
       <c r="D12">
-        <v>0.04428697704402233</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.04835859070550576</v>
+      </c>
+      <c r="E12">
+        <v>-0.01105774251718625</v>
+      </c>
+      <c r="F12">
+        <v>0.02269899003932432</v>
+      </c>
+      <c r="G12">
+        <v>0.01380557114960377</v>
+      </c>
+      <c r="H12">
+        <v>-0.03274776120807771</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.06481493788495006</v>
+        <v>0.06705756922011803</v>
       </c>
       <c r="C13">
-        <v>0.03408732494787346</v>
+        <v>-0.01990431826656195</v>
       </c>
       <c r="D13">
-        <v>0.04825577880479195</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.03942722313987449</v>
+      </c>
+      <c r="E13">
+        <v>-0.01581594647729486</v>
+      </c>
+      <c r="F13">
+        <v>0.02357460623191083</v>
+      </c>
+      <c r="G13">
+        <v>0.0003015173018093446</v>
+      </c>
+      <c r="H13">
+        <v>-0.05886736395488303</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>0.03373330663462449</v>
+        <v>0.03943452985590361</v>
       </c>
       <c r="C14">
-        <v>0.03127026757665902</v>
+        <v>-0.02676713265873202</v>
       </c>
       <c r="D14">
-        <v>0.004830574671629485</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.01425686271294569</v>
+      </c>
+      <c r="E14">
+        <v>-0.03222689218823904</v>
+      </c>
+      <c r="F14">
+        <v>0.016471062869765</v>
+      </c>
+      <c r="G14">
+        <v>0.01594663473945651</v>
+      </c>
+      <c r="H14">
+        <v>-0.05697890903230007</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>0.04016730877509275</v>
+        <v>0.03958161817134501</v>
       </c>
       <c r="C15">
-        <v>0.008068734339780439</v>
+        <v>-0.001647710932603923</v>
       </c>
       <c r="D15">
-        <v>0.02230522700445821</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.00895316576355118</v>
+      </c>
+      <c r="E15">
+        <v>-0.03553482363499991</v>
+      </c>
+      <c r="F15">
+        <v>-0.0002749880650182446</v>
+      </c>
+      <c r="G15">
+        <v>0.02922212081328825</v>
+      </c>
+      <c r="H15">
+        <v>-0.03019529677119033</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.06105252758428606</v>
+        <v>0.07139631126092506</v>
       </c>
       <c r="C16">
-        <v>0.03903568975983704</v>
+        <v>-0.02444419021096681</v>
       </c>
       <c r="D16">
-        <v>0.04940627571247163</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.06188390239058496</v>
+      </c>
+      <c r="E16">
+        <v>-0.004102424031142611</v>
+      </c>
+      <c r="F16">
+        <v>0.03154837035765522</v>
+      </c>
+      <c r="G16">
+        <v>0.01298105476209544</v>
+      </c>
+      <c r="H16">
+        <v>-0.05073941478727895</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1133,22 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,10 +1159,22 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1185,204 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>0.06354529025985924</v>
+        <v>0.06275234731582993</v>
       </c>
       <c r="C20">
-        <v>0.02330889400059705</v>
+        <v>-0.007425923059985298</v>
       </c>
       <c r="D20">
-        <v>0.04818809570367213</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.03918267311998321</v>
+      </c>
+      <c r="E20">
+        <v>-0.01663686350244276</v>
+      </c>
+      <c r="F20">
+        <v>0.02686211766205676</v>
+      </c>
+      <c r="G20">
+        <v>0.01873444594574262</v>
+      </c>
+      <c r="H20">
+        <v>-0.03956097867096602</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.02673362451052496</v>
+        <v>0.02697559200093569</v>
       </c>
       <c r="C21">
-        <v>-0.001773907732076404</v>
+        <v>0.00886290345656743</v>
       </c>
       <c r="D21">
-        <v>0.02167658561322028</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.02336491589068731</v>
+      </c>
+      <c r="E21">
+        <v>-0.04477442587314141</v>
+      </c>
+      <c r="F21">
+        <v>-0.01072611322285418</v>
+      </c>
+      <c r="G21">
+        <v>0.004996685336961105</v>
+      </c>
+      <c r="H21">
+        <v>0.0472120005142033</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>0.07954658073279434</v>
+        <v>0.06982176942883853</v>
       </c>
       <c r="C22">
-        <v>0.05812738647628434</v>
+        <v>-0.03258257218630361</v>
       </c>
       <c r="D22">
-        <v>0.1473923617042526</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.1020418010929789</v>
+      </c>
+      <c r="E22">
+        <v>-0.6006731739889999</v>
+      </c>
+      <c r="F22">
+        <v>-0.112614840005047</v>
+      </c>
+      <c r="G22">
+        <v>-0.121836378722012</v>
+      </c>
+      <c r="H22">
+        <v>0.1556996661282671</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>0.0805176118264081</v>
+        <v>0.0707311316199903</v>
       </c>
       <c r="C23">
-        <v>0.0568420005562496</v>
+        <v>-0.03130609094484057</v>
       </c>
       <c r="D23">
-        <v>0.1487334312720005</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.103094460078051</v>
+      </c>
+      <c r="E23">
+        <v>-0.6028753371372041</v>
+      </c>
+      <c r="F23">
+        <v>-0.1121546905991714</v>
+      </c>
+      <c r="G23">
+        <v>-0.1176299949425534</v>
+      </c>
+      <c r="H23">
+        <v>0.1503770030842273</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.07560097945617215</v>
+        <v>0.08010136824916277</v>
       </c>
       <c r="C24">
-        <v>0.04999658641567371</v>
+        <v>-0.02957136404430012</v>
       </c>
       <c r="D24">
-        <v>0.06042338316355909</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.06339397628380217</v>
+      </c>
+      <c r="E24">
+        <v>-0.01286041704126346</v>
+      </c>
+      <c r="F24">
+        <v>0.03826583841825872</v>
+      </c>
+      <c r="G24">
+        <v>0.0253607926894176</v>
+      </c>
+      <c r="H24">
+        <v>-0.03818950562585915</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.07476235516181946</v>
+        <v>0.07887261623619807</v>
       </c>
       <c r="C25">
-        <v>0.05289043903493841</v>
+        <v>-0.0339817634414001</v>
       </c>
       <c r="D25">
-        <v>0.06498460605313251</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.0522181356982961</v>
+      </c>
+      <c r="E25">
+        <v>-0.01960185044127549</v>
+      </c>
+      <c r="F25">
+        <v>0.03198136626929382</v>
+      </c>
+      <c r="G25">
+        <v>0.03647490883644235</v>
+      </c>
+      <c r="H25">
+        <v>-0.04540540596398684</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.04449780513294644</v>
+        <v>0.04610436468321542</v>
       </c>
       <c r="C26">
-        <v>0.008259742626116326</v>
+        <v>0.0001021688384823465</v>
       </c>
       <c r="D26">
-        <v>0.01419800009901553</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.01874314476623714</v>
+      </c>
+      <c r="E26">
+        <v>-0.04128761547603531</v>
+      </c>
+      <c r="F26">
+        <v>0.03749245808372462</v>
+      </c>
+      <c r="G26">
+        <v>0.001243861777092291</v>
+      </c>
+      <c r="H26">
+        <v>-0.05061538879285658</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1393,256 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.05332884194267551</v>
+        <v>0.06935375959520768</v>
       </c>
       <c r="C28">
-        <v>0.07038626928338849</v>
+        <v>-0.105872273532825</v>
       </c>
       <c r="D28">
-        <v>-0.3023030294206011</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.2991932758331263</v>
+      </c>
+      <c r="E28">
+        <v>-0.0365575936579647</v>
+      </c>
+      <c r="F28">
+        <v>0.06338762977832554</v>
+      </c>
+      <c r="G28">
+        <v>0.03134043319526363</v>
+      </c>
+      <c r="H28">
+        <v>0.03754321619767098</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>0.04373015403518027</v>
+        <v>0.04788833094881813</v>
       </c>
       <c r="C29">
-        <v>0.02893907731084383</v>
+        <v>-0.0235419630087084</v>
       </c>
       <c r="D29">
-        <v>0.008747212344196844</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.01100436847683702</v>
+      </c>
+      <c r="E29">
+        <v>-0.06274611475107257</v>
+      </c>
+      <c r="F29">
+        <v>0.01429662353085432</v>
+      </c>
+      <c r="G29">
+        <v>0.001204695412093665</v>
+      </c>
+      <c r="H29">
+        <v>-0.07649994879141826</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.1298501692471149</v>
+        <v>0.1284874756192195</v>
       </c>
       <c r="C30">
-        <v>0.08560927541294026</v>
+        <v>-0.05504516764791141</v>
       </c>
       <c r="D30">
-        <v>0.1066843939676169</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.07771993769642417</v>
+      </c>
+      <c r="E30">
+        <v>-0.07876510233955095</v>
+      </c>
+      <c r="F30">
+        <v>0.01514538440245125</v>
+      </c>
+      <c r="G30">
+        <v>0.08177073196784304</v>
+      </c>
+      <c r="H30">
+        <v>0.07449507155276879</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.04593127995665292</v>
+        <v>0.04869202482867159</v>
       </c>
       <c r="C31">
-        <v>0.02180301568659912</v>
+        <v>-0.01124847459092346</v>
       </c>
       <c r="D31">
-        <v>0.02539005766824615</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.03182488554751137</v>
+      </c>
+      <c r="E31">
+        <v>-0.02286204174501948</v>
+      </c>
+      <c r="F31">
+        <v>0.006061264227902981</v>
+      </c>
+      <c r="G31">
+        <v>-0.01700140469919332</v>
+      </c>
+      <c r="H31">
+        <v>-0.06895754541320341</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.03731970921854041</v>
+        <v>0.03942324115913121</v>
       </c>
       <c r="C32">
-        <v>0.02204127419975735</v>
+        <v>-0.01993670258974017</v>
       </c>
       <c r="D32">
-        <v>0.023541821057702</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.01072856121157036</v>
+      </c>
+      <c r="E32">
+        <v>-0.05618665282394676</v>
+      </c>
+      <c r="F32">
+        <v>-0.008302137443945388</v>
+      </c>
+      <c r="G32">
+        <v>0.04657392385496466</v>
+      </c>
+      <c r="H32">
+        <v>-0.05609757105322287</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.08518618963745839</v>
+        <v>0.09435282590730903</v>
       </c>
       <c r="C33">
-        <v>0.03790988894653519</v>
+        <v>-0.02053474945766025</v>
       </c>
       <c r="D33">
-        <v>0.05517835216075221</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.04791446720613871</v>
+      </c>
+      <c r="E33">
+        <v>-0.01723005972036061</v>
+      </c>
+      <c r="F33">
+        <v>0.009795217639168735</v>
+      </c>
+      <c r="G33">
+        <v>0.006720017718979919</v>
+      </c>
+      <c r="H33">
+        <v>-0.05785372265259949</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.05899554326868998</v>
+        <v>0.06370577728956157</v>
       </c>
       <c r="C34">
-        <v>0.02442731716110592</v>
+        <v>-0.008893999675381016</v>
       </c>
       <c r="D34">
-        <v>0.05187883361488894</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.04966043687542233</v>
+      </c>
+      <c r="E34">
+        <v>-0.008709397216020169</v>
+      </c>
+      <c r="F34">
+        <v>0.02155550280133973</v>
+      </c>
+      <c r="G34">
+        <v>0.01449000538414156</v>
+      </c>
+      <c r="H34">
+        <v>-0.05521433218791177</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>0.03644185194815243</v>
+        <v>0.03841404113574977</v>
       </c>
       <c r="C35">
-        <v>0.007097060972332009</v>
+        <v>-0.001446685470278799</v>
       </c>
       <c r="D35">
-        <v>0.01843904811102337</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.01459699377738753</v>
+      </c>
+      <c r="E35">
+        <v>-0.02032073407349661</v>
+      </c>
+      <c r="F35">
+        <v>-0.0180424838530728</v>
+      </c>
+      <c r="G35">
+        <v>-0.005930171099761369</v>
+      </c>
+      <c r="H35">
+        <v>-0.01982080792593309</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.02450509389623685</v>
+        <v>0.02883914723816387</v>
       </c>
       <c r="C36">
-        <v>0.01758682458120537</v>
+        <v>-0.01366482398859324</v>
       </c>
       <c r="D36">
-        <v>0.02226779079714543</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.01661700059709799</v>
+      </c>
+      <c r="E36">
+        <v>-0.03012734738277638</v>
+      </c>
+      <c r="F36">
+        <v>0.02470690817041029</v>
+      </c>
+      <c r="G36">
+        <v>-0.001240766619735479</v>
+      </c>
+      <c r="H36">
+        <v>-0.0410435137178801</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1653,126 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.04354702162815564</v>
+        <v>0.04384111736299269</v>
       </c>
       <c r="C38">
-        <v>0.001848903551230052</v>
+        <v>0.006240475792651054</v>
       </c>
       <c r="D38">
-        <v>0.02028904277610317</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.02172114887046956</v>
+      </c>
+      <c r="E38">
+        <v>-0.04993235072732163</v>
+      </c>
+      <c r="F38">
+        <v>-0.008674519341401267</v>
+      </c>
+      <c r="G38">
+        <v>0.006759087349494487</v>
+      </c>
+      <c r="H38">
+        <v>-0.03247187322993646</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.09219461465031471</v>
+        <v>0.1003178020624486</v>
       </c>
       <c r="C39">
-        <v>0.06671861118858714</v>
+        <v>-0.04533267305223405</v>
       </c>
       <c r="D39">
-        <v>0.05619077672597098</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.06697376965386866</v>
+      </c>
+      <c r="E39">
+        <v>-0.007050422871530552</v>
+      </c>
+      <c r="F39">
+        <v>-0.0007428955691519189</v>
+      </c>
+      <c r="G39">
+        <v>0.04708889740575439</v>
+      </c>
+      <c r="H39">
+        <v>-0.03000126806432074</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.07929507148970848</v>
+        <v>0.06298488135545406</v>
       </c>
       <c r="C40">
-        <v>0.03372019173169995</v>
+        <v>-0.005450636971456038</v>
       </c>
       <c r="D40">
-        <v>0.005392951878744389</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.03062127187834381</v>
+      </c>
+      <c r="E40">
+        <v>-0.03837850290509864</v>
+      </c>
+      <c r="F40">
+        <v>-0.04381280711819342</v>
+      </c>
+      <c r="G40">
+        <v>0.03507292820525835</v>
+      </c>
+      <c r="H40">
+        <v>0.08901225698377049</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.04335538687210515</v>
+        <v>0.04484846359949442</v>
       </c>
       <c r="C41">
-        <v>0.004889025701364715</v>
+        <v>0.005401947944158019</v>
       </c>
       <c r="D41">
-        <v>0.03763793653547048</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.0326688887710616</v>
+      </c>
+      <c r="E41">
+        <v>-0.002164857949759087</v>
+      </c>
+      <c r="F41">
+        <v>-0.01457587793883381</v>
+      </c>
+      <c r="G41">
+        <v>0.01330174043756871</v>
+      </c>
+      <c r="H41">
+        <v>-0.0333149865648498</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1783,74 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>0.05246061059174627</v>
+        <v>0.05978223138068466</v>
       </c>
       <c r="C43">
-        <v>0.02533044737777705</v>
+        <v>-0.01591041894762254</v>
       </c>
       <c r="D43">
-        <v>0.01574655019343184</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.02841698797786999</v>
+      </c>
+      <c r="E43">
+        <v>-0.02281469605056668</v>
+      </c>
+      <c r="F43">
+        <v>0.0139285887791923</v>
+      </c>
+      <c r="G43">
+        <v>-0.01298157462125914</v>
+      </c>
+      <c r="H43">
+        <v>-0.06781957935060508</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.09793325681953581</v>
+        <v>0.09540505579086392</v>
       </c>
       <c r="C44">
-        <v>0.08388745610785209</v>
+        <v>-0.05547131617746521</v>
       </c>
       <c r="D44">
-        <v>0.07796733914066582</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.06856651571374951</v>
+      </c>
+      <c r="E44">
+        <v>-0.07924967659402364</v>
+      </c>
+      <c r="F44">
+        <v>0.07676858612874517</v>
+      </c>
+      <c r="G44">
+        <v>0.02957776024141594</v>
+      </c>
+      <c r="H44">
+        <v>-0.02609079001412028</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,94 +1861,178 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.02682884928528874</v>
+        <v>0.03517903205440746</v>
       </c>
       <c r="C46">
-        <v>0.01494063540673279</v>
+        <v>-0.01031199615049599</v>
       </c>
       <c r="D46">
-        <v>0.03025319062879621</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.03643676078119058</v>
+      </c>
+      <c r="E46">
+        <v>-0.03390429557955237</v>
+      </c>
+      <c r="F46">
+        <v>0.01561511780126614</v>
+      </c>
+      <c r="G46">
+        <v>-0.001350279422315896</v>
+      </c>
+      <c r="H46">
+        <v>-0.03461159774819962</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.03413264307105698</v>
+        <v>0.04016274110969892</v>
       </c>
       <c r="C47">
-        <v>0.02189818379042966</v>
+        <v>-0.01708890653301388</v>
       </c>
       <c r="D47">
-        <v>0.0002550609091511255</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.006191418623954386</v>
+      </c>
+      <c r="E47">
+        <v>-0.04647784461590788</v>
+      </c>
+      <c r="F47">
+        <v>-0.006285758046865565</v>
+      </c>
+      <c r="G47">
+        <v>-0.03862363083503696</v>
+      </c>
+      <c r="H47">
+        <v>-0.0401415010401849</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.0347387558497017</v>
+        <v>0.03808753246814771</v>
       </c>
       <c r="C48">
-        <v>0.01745649845149124</v>
+        <v>-0.009782064303438366</v>
       </c>
       <c r="D48">
-        <v>0.03351891121953762</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.0208826363461678</v>
+      </c>
+      <c r="E48">
+        <v>-0.04036781312544045</v>
+      </c>
+      <c r="F48">
+        <v>0.009404062811156686</v>
+      </c>
+      <c r="G48">
+        <v>0.01915639630171356</v>
+      </c>
+      <c r="H48">
+        <v>-0.03398782448699297</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B49">
-        <v>0.1634388488041012</v>
+        <v>0.1920706685317932</v>
       </c>
       <c r="C49">
-        <v>0.0479701951108728</v>
+        <v>-0.02716832989884223</v>
       </c>
       <c r="D49">
-        <v>0.001138419891735662</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>-0.03513119928919691</v>
+      </c>
+      <c r="E49">
+        <v>0.1740391361869048</v>
+      </c>
+      <c r="F49">
+        <v>0.05713931511633189</v>
+      </c>
+      <c r="G49">
+        <v>-0.08743849734053163</v>
+      </c>
+      <c r="H49">
+        <v>0.2190837646047595</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.0409288735481066</v>
+        <v>0.0451628344101242</v>
       </c>
       <c r="C50">
-        <v>0.01850398145762859</v>
+        <v>-0.01000788455035246</v>
       </c>
       <c r="D50">
-        <v>0.04546996980786322</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.03747025460029799</v>
+      </c>
+      <c r="E50">
+        <v>-0.04146126884038502</v>
+      </c>
+      <c r="F50">
+        <v>0.008579848954046973</v>
+      </c>
+      <c r="G50">
+        <v>-0.01455950369481938</v>
+      </c>
+      <c r="H50">
+        <v>-0.07458442251412953</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.02896269122774332</v>
+        <v>0.03300717851310635</v>
       </c>
       <c r="C51">
-        <v>0.0104073298024242</v>
+        <v>-0.005643939643569688</v>
       </c>
       <c r="D51">
-        <v>0.003780446662126694</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.005086811505990736</v>
+      </c>
+      <c r="E51">
+        <v>-0.007642544439650292</v>
+      </c>
+      <c r="F51">
+        <v>0.01156477007411547</v>
+      </c>
+      <c r="G51">
+        <v>-0.002824446246098673</v>
+      </c>
+      <c r="H51">
+        <v>0.004463589650708086</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +2043,126 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.1573390003089883</v>
+        <v>0.1619239668749986</v>
       </c>
       <c r="C53">
-        <v>0.07099399521283403</v>
+        <v>-0.04485709674807357</v>
       </c>
       <c r="D53">
-        <v>0.0006062693753108297</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.02404847515001103</v>
+      </c>
+      <c r="E53">
+        <v>0.03254481488167436</v>
+      </c>
+      <c r="F53">
+        <v>0.001313292205082952</v>
+      </c>
+      <c r="G53">
+        <v>-0.0102807709926758</v>
+      </c>
+      <c r="H53">
+        <v>-0.1907468963451312</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.05674433659547501</v>
+        <v>0.05789549931517234</v>
       </c>
       <c r="C54">
-        <v>0.02097816798678697</v>
+        <v>-0.01182881315527959</v>
       </c>
       <c r="D54">
-        <v>0.01757759751240011</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.01440672573290746</v>
+      </c>
+      <c r="E54">
+        <v>-0.05540500819264978</v>
+      </c>
+      <c r="F54">
+        <v>0.01019658347389192</v>
+      </c>
+      <c r="G54">
+        <v>0.04231068510101187</v>
+      </c>
+      <c r="H54">
+        <v>-0.04565476631970274</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.1004878681484776</v>
+        <v>0.1039991208058353</v>
       </c>
       <c r="C55">
-        <v>0.04841192964888111</v>
+        <v>-0.03056404759825499</v>
       </c>
       <c r="D55">
-        <v>0.02239838001903253</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.02882326394084892</v>
+      </c>
+      <c r="E55">
+        <v>-0.007219343451263456</v>
+      </c>
+      <c r="F55">
+        <v>0.01145272068129138</v>
+      </c>
+      <c r="G55">
+        <v>-0.002123967961941942</v>
+      </c>
+      <c r="H55">
+        <v>-0.1546894271752423</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1521383391935412</v>
+        <v>0.1596254683769214</v>
       </c>
       <c r="C56">
-        <v>0.08152273643276359</v>
+        <v>-0.05389577124497991</v>
       </c>
       <c r="D56">
-        <v>0.01100421455973708</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.03540655303314876</v>
+      </c>
+      <c r="E56">
+        <v>0.01993818110106053</v>
+      </c>
+      <c r="F56">
+        <v>0.02272149026394025</v>
+      </c>
+      <c r="G56">
+        <v>-0.01353115113213502</v>
+      </c>
+      <c r="H56">
+        <v>-0.1978062901337026</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,542 +2173,1010 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>0.1318050660467577</v>
+        <v>0.09916456614813624</v>
       </c>
       <c r="C58">
-        <v>-0.005741555423413727</v>
+        <v>0.04878037183645947</v>
       </c>
       <c r="D58">
-        <v>0.02306092316366229</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.03263464875237924</v>
+      </c>
+      <c r="E58">
+        <v>-0.1401861343318836</v>
+      </c>
+      <c r="F58">
+        <v>0.002825084842626997</v>
+      </c>
+      <c r="G58">
+        <v>-0.0662845293343395</v>
+      </c>
+      <c r="H58">
+        <v>0.210374560706717</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.1269791629432093</v>
+        <v>0.1457944933477823</v>
       </c>
       <c r="C59">
-        <v>0.07778809541859642</v>
+        <v>-0.1112369094585971</v>
       </c>
       <c r="D59">
-        <v>-0.3811354981808556</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.3565364761252996</v>
+      </c>
+      <c r="E59">
+        <v>-0.0370089856663534</v>
+      </c>
+      <c r="F59">
+        <v>0.00116019408382653</v>
+      </c>
+      <c r="G59">
+        <v>-0.01592944349216128</v>
+      </c>
+      <c r="H59">
+        <v>-0.002336254267414982</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.2097190018327995</v>
+        <v>0.2389466058190382</v>
       </c>
       <c r="C60">
-        <v>0.08919479048470798</v>
+        <v>-0.05956211956437076</v>
       </c>
       <c r="D60">
-        <v>0.02225317113015097</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.04516867592496744</v>
+      </c>
+      <c r="E60">
+        <v>0.1139264378966932</v>
+      </c>
+      <c r="F60">
+        <v>0.05681422964975848</v>
+      </c>
+      <c r="G60">
+        <v>-0.003352062753442152</v>
+      </c>
+      <c r="H60">
+        <v>0.1510094143860968</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.08267228123871434</v>
+        <v>0.08820166689943119</v>
       </c>
       <c r="C61">
-        <v>0.04734546846589215</v>
+        <v>-0.03087262216400491</v>
       </c>
       <c r="D61">
-        <v>0.03505945163584928</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.04242445265156711</v>
+      </c>
+      <c r="E61">
+        <v>-0.004937621650698496</v>
+      </c>
+      <c r="F61">
+        <v>-0.001001522360900099</v>
+      </c>
+      <c r="G61">
+        <v>0.01211804035164871</v>
+      </c>
+      <c r="H61">
+        <v>-0.05859610373593249</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B62">
-        <v>0.1315009860228296</v>
+        <v>0.1366556518528087</v>
       </c>
       <c r="C62">
-        <v>0.05702494983553546</v>
+        <v>-0.03039822325347504</v>
       </c>
       <c r="D62">
-        <v>0.01956954543646581</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>-0.04395738340776744</v>
+      </c>
+      <c r="E62">
+        <v>0.05367271253238663</v>
+      </c>
+      <c r="F62">
+        <v>-0.007384603940162507</v>
+      </c>
+      <c r="G62">
+        <v>0.02982628302937709</v>
+      </c>
+      <c r="H62">
+        <v>-0.1880503333989824</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.05199603057286519</v>
+        <v>0.05209663790231157</v>
       </c>
       <c r="C63">
-        <v>0.02262804535686029</v>
+        <v>-0.01337787926708389</v>
       </c>
       <c r="D63">
-        <v>0.02612744156950162</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.02029541252666177</v>
+      </c>
+      <c r="E63">
+        <v>-0.04867341275242718</v>
+      </c>
+      <c r="F63">
+        <v>-0.002233265505588571</v>
+      </c>
+      <c r="G63">
+        <v>0.02128363428984494</v>
+      </c>
+      <c r="H63">
+        <v>-0.04219374782236675</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.105096756131099</v>
+        <v>0.1097364500295638</v>
       </c>
       <c r="C64">
-        <v>0.02784352875783665</v>
+        <v>-0.01309673814315318</v>
       </c>
       <c r="D64">
-        <v>0.03532112011125604</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.02953215000423397</v>
+      </c>
+      <c r="E64">
+        <v>-0.03441267730988316</v>
+      </c>
+      <c r="F64">
+        <v>0.04295917077303327</v>
+      </c>
+      <c r="G64">
+        <v>0.063281489816817</v>
+      </c>
+      <c r="H64">
+        <v>-0.03386797386378934</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.1306879407167477</v>
+        <v>0.1315675354820291</v>
       </c>
       <c r="C65">
-        <v>0.05725665569831358</v>
+        <v>-0.03939810395601253</v>
       </c>
       <c r="D65">
-        <v>0.003339714964349657</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.009123019624937898</v>
+      </c>
+      <c r="E65">
+        <v>0.0006439256216836918</v>
+      </c>
+      <c r="F65">
+        <v>0.05655049512792581</v>
+      </c>
+      <c r="G65">
+        <v>0.05163385596368597</v>
+      </c>
+      <c r="H65">
+        <v>0.150253504896635</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.1496262150646589</v>
+        <v>0.152191648555738</v>
       </c>
       <c r="C66">
-        <v>0.06471470322010486</v>
+        <v>-0.03195823343326124</v>
       </c>
       <c r="D66">
-        <v>0.09980762507990432</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.1001799798883241</v>
+      </c>
+      <c r="E66">
+        <v>0.02225053774405886</v>
+      </c>
+      <c r="F66">
+        <v>0.001464736986217171</v>
+      </c>
+      <c r="G66">
+        <v>0.06251363891126406</v>
+      </c>
+      <c r="H66">
+        <v>-0.09106363017867447</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.07599532080211054</v>
+        <v>0.08425188628476746</v>
       </c>
       <c r="C67">
-        <v>0.008437532972068045</v>
+        <v>0.0026211504215564</v>
       </c>
       <c r="D67">
-        <v>0.02410517673230517</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.03312706180707022</v>
+      </c>
+      <c r="E67">
+        <v>-0.01589355283172301</v>
+      </c>
+      <c r="F67">
+        <v>0.0137196723339503</v>
+      </c>
+      <c r="G67">
+        <v>-0.00830473491455264</v>
+      </c>
+      <c r="H67">
+        <v>-0.04113398805021662</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.06083109920628871</v>
+        <v>0.06429972017201324</v>
       </c>
       <c r="C68">
-        <v>0.05025358548666006</v>
+        <v>-0.07956168406601773</v>
       </c>
       <c r="D68">
-        <v>-0.2551077216595695</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.2647762691323021</v>
+      </c>
+      <c r="E68">
+        <v>-0.04337443162979877</v>
+      </c>
+      <c r="F68">
+        <v>0.01212306639905666</v>
+      </c>
+      <c r="G68">
+        <v>-0.01000256738797121</v>
+      </c>
+      <c r="H68">
+        <v>-0.009678994504881983</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.05236811744981317</v>
+        <v>0.05199023030095117</v>
       </c>
       <c r="C69">
-        <v>0.01422717573039455</v>
+        <v>-0.002346801590639844</v>
       </c>
       <c r="D69">
-        <v>0.02502699105765081</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.02039756266220273</v>
+      </c>
+      <c r="E69">
+        <v>-0.02685485857557245</v>
+      </c>
+      <c r="F69">
+        <v>-0.01062980696786928</v>
+      </c>
+      <c r="G69">
+        <v>-0.01410778438923165</v>
+      </c>
+      <c r="H69">
+        <v>-0.06098566569203464</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B70">
-        <v>0.003061532309326649</v>
+        <v>0.02694202441535851</v>
       </c>
       <c r="C70">
-        <v>-0.007981726527115571</v>
+        <v>0.003080889119077135</v>
       </c>
       <c r="D70">
-        <v>-0.01018150044501938</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>0.005656174257939201</v>
+      </c>
+      <c r="E70">
+        <v>0.02530884116138981</v>
+      </c>
+      <c r="F70">
+        <v>0.008447758668536805</v>
+      </c>
+      <c r="G70">
+        <v>-0.02066109721826272</v>
+      </c>
+      <c r="H70">
+        <v>0.01792764090338923</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.05928220640006924</v>
+        <v>0.06826922792946205</v>
       </c>
       <c r="C71">
-        <v>0.05042319605973777</v>
+        <v>-0.08754655476274489</v>
       </c>
       <c r="D71">
-        <v>-0.2912866441327861</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.2923738063400813</v>
+      </c>
+      <c r="E71">
+        <v>-0.03849687167227522</v>
+      </c>
+      <c r="F71">
+        <v>0.04213078372596765</v>
+      </c>
+      <c r="G71">
+        <v>-0.002147019922461599</v>
+      </c>
+      <c r="H71">
+        <v>-0.006957030112930998</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.1429184657978719</v>
+        <v>0.1448830164038189</v>
       </c>
       <c r="C72">
-        <v>0.05735983530672135</v>
+        <v>-0.03174974086371351</v>
       </c>
       <c r="D72">
-        <v>0.0003458856498150158</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.001330262305057799</v>
+      </c>
+      <c r="E72">
+        <v>0.07023408841745042</v>
+      </c>
+      <c r="F72">
+        <v>-0.163848343227198</v>
+      </c>
+      <c r="G72">
+        <v>0.1171819234161194</v>
+      </c>
+      <c r="H72">
+        <v>0.02470607204263299</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.2883681097717748</v>
+        <v>0.2877543661676855</v>
       </c>
       <c r="C73">
-        <v>0.09014657926538962</v>
+        <v>-0.02391941266057992</v>
       </c>
       <c r="D73">
-        <v>0.04273191293686426</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.1011254510457832</v>
+      </c>
+      <c r="E73">
+        <v>0.2360889339485868</v>
+      </c>
+      <c r="F73">
+        <v>0.081140256523521</v>
+      </c>
+      <c r="G73">
+        <v>-0.2053258854302826</v>
+      </c>
+      <c r="H73">
+        <v>0.4693493606658146</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.08357114699063818</v>
+        <v>0.09140134580148858</v>
       </c>
       <c r="C74">
-        <v>0.07431122786233836</v>
+        <v>-0.0553824951053353</v>
       </c>
       <c r="D74">
-        <v>0.009162836971347354</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.0379400386249859</v>
+      </c>
+      <c r="E74">
+        <v>0.003950994614523832</v>
+      </c>
+      <c r="F74">
+        <v>-0.004028676636701324</v>
+      </c>
+      <c r="G74">
+        <v>-0.04000792942675785</v>
+      </c>
+      <c r="H74">
+        <v>-0.1272939927395176</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.09942328889752687</v>
+        <v>0.1032065344162175</v>
       </c>
       <c r="C75">
-        <v>0.04664799927078901</v>
+        <v>-0.0228950261649299</v>
       </c>
       <c r="D75">
-        <v>0.01210802879835366</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.02384971728778712</v>
+      </c>
+      <c r="E75">
+        <v>0.001313988059607067</v>
+      </c>
+      <c r="F75">
+        <v>0.006171928665095852</v>
+      </c>
+      <c r="G75">
+        <v>-0.02187527672695854</v>
+      </c>
+      <c r="H75">
+        <v>-0.1187396729867718</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.134400827740165</v>
+        <v>0.1432646656575659</v>
       </c>
       <c r="C76">
-        <v>0.07649401057140795</v>
+        <v>-0.051903132382638</v>
       </c>
       <c r="D76">
-        <v>0.0321053932765312</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-0.04952707649457699</v>
+      </c>
+      <c r="E76">
+        <v>-0.01658779139507405</v>
+      </c>
+      <c r="F76">
+        <v>0.03525899345643951</v>
+      </c>
+      <c r="G76">
+        <v>-0.005639717915915565</v>
+      </c>
+      <c r="H76">
+        <v>-0.2202701211816324</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.1178108541346043</v>
+        <v>0.1041505999846963</v>
       </c>
       <c r="C77">
-        <v>0.009194906033090991</v>
+        <v>0.02058398733353807</v>
       </c>
       <c r="D77">
-        <v>0.08386153216244335</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.03690809932983809</v>
+      </c>
+      <c r="E77">
+        <v>-0.04059230539729673</v>
+      </c>
+      <c r="F77">
+        <v>0.09092009389997982</v>
+      </c>
+      <c r="G77">
+        <v>0.8593344073072563</v>
+      </c>
+      <c r="H77">
+        <v>0.188771795176413</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.1077623734286024</v>
+        <v>0.1499461311688393</v>
       </c>
       <c r="C78">
-        <v>0.03374221944732841</v>
+        <v>-0.02890057360369068</v>
       </c>
       <c r="D78">
-        <v>0.09192550647787623</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.07922999033220261</v>
+      </c>
+      <c r="E78">
+        <v>-0.04788881335950877</v>
+      </c>
+      <c r="F78">
+        <v>0.06696466150603878</v>
+      </c>
+      <c r="G78">
+        <v>0.07899332293473116</v>
+      </c>
+      <c r="H78">
+        <v>0.04693367788163002</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>0.1487659242506008</v>
+        <v>0.149135109310135</v>
       </c>
       <c r="C79">
-        <v>0.06672057011626602</v>
+        <v>-0.03499606792331131</v>
       </c>
       <c r="D79">
-        <v>0.02233262893831839</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.03679400350685635</v>
+      </c>
+      <c r="E79">
+        <v>0.0173882621799807</v>
+      </c>
+      <c r="F79">
+        <v>0.01625423585295489</v>
+      </c>
+      <c r="G79">
+        <v>-0.01764740724217898</v>
+      </c>
+      <c r="H79">
+        <v>-0.1682695431730282</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.04127814462760955</v>
+        <v>0.04166092531630702</v>
       </c>
       <c r="C80">
-        <v>0.01908196053490636</v>
+        <v>-0.01187608692085032</v>
       </c>
       <c r="D80">
-        <v>0.03052427703326883</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.01689974977329304</v>
+      </c>
+      <c r="E80">
+        <v>0.03081530552665369</v>
+      </c>
+      <c r="F80">
+        <v>0.00361826589064767</v>
+      </c>
+      <c r="G80">
+        <v>-0.02216641422712109</v>
+      </c>
+      <c r="H80">
+        <v>-0.03680033121111202</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.1207141722006673</v>
+        <v>0.1215278734175593</v>
       </c>
       <c r="C81">
-        <v>0.05577289402408161</v>
+        <v>-0.03055571082056998</v>
       </c>
       <c r="D81">
-        <v>0.03139892751077217</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.03012580464592729</v>
+      </c>
+      <c r="E81">
+        <v>-0.00628279780292956</v>
+      </c>
+      <c r="F81">
+        <v>0.009057585149727793</v>
+      </c>
+      <c r="G81">
+        <v>-0.04431871726391772</v>
+      </c>
+      <c r="H81">
+        <v>-0.1673934481408207</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>0.1322806995320776</v>
+        <v>0.131571192098747</v>
       </c>
       <c r="C82">
-        <v>0.06929125885486144</v>
+        <v>-0.04411621318994272</v>
       </c>
       <c r="D82">
-        <v>0.01104893574451708</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.03366591539175415</v>
+      </c>
+      <c r="E82">
+        <v>0.02284570955493205</v>
+      </c>
+      <c r="F82">
+        <v>0.04279690330569998</v>
+      </c>
+      <c r="G82">
+        <v>-0.03099414761142183</v>
+      </c>
+      <c r="H82">
+        <v>-0.223338382529476</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>0.0701567272939531</v>
+        <v>0.08346161188121783</v>
       </c>
       <c r="C83">
-        <v>-0.02639122113078273</v>
+        <v>0.03765906482290724</v>
       </c>
       <c r="D83">
-        <v>0.01326436732992319</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.0213310344486159</v>
+      </c>
+      <c r="E83">
+        <v>-0.01862655322600002</v>
+      </c>
+      <c r="F83">
+        <v>0.04462973518868228</v>
+      </c>
+      <c r="G83">
+        <v>-0.05886935675318754</v>
+      </c>
+      <c r="H83">
+        <v>0.04257642785561551</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>0.02880324953638804</v>
+        <v>0.03829267592954988</v>
       </c>
       <c r="C84">
-        <v>0.02730975019880337</v>
+        <v>-0.02192381713505145</v>
       </c>
       <c r="D84">
-        <v>0.03366149239440319</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.03255975577570663</v>
+      </c>
+      <c r="E84">
+        <v>-0.03044147049868196</v>
+      </c>
+      <c r="F84">
+        <v>-0.04640237841958811</v>
+      </c>
+      <c r="G84">
+        <v>-0.05414742317119557</v>
+      </c>
+      <c r="H84">
+        <v>-0.00895469130696225</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.1159757666217878</v>
+        <v>0.1199932033404026</v>
       </c>
       <c r="C85">
-        <v>0.03980710938033439</v>
+        <v>-0.0171219541697883</v>
       </c>
       <c r="D85">
-        <v>0.04607258368199189</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.0386620572585025</v>
+      </c>
+      <c r="E85">
+        <v>-0.01671418771371407</v>
+      </c>
+      <c r="F85">
+        <v>0.03099866821671707</v>
+      </c>
+      <c r="G85">
+        <v>-0.01990400137411803</v>
+      </c>
+      <c r="H85">
+        <v>-0.1585181106425245</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>0.05372034563503373</v>
+        <v>0.05621518000997085</v>
       </c>
       <c r="C86">
-        <v>0.02104501670280591</v>
+        <v>-0.007977910511556155</v>
       </c>
       <c r="D86">
-        <v>0.06023887388688232</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.03545869495732965</v>
+      </c>
+      <c r="E86">
+        <v>-0.04268105308626929</v>
+      </c>
+      <c r="F86">
+        <v>0.03665565807585069</v>
+      </c>
+      <c r="G86">
+        <v>-0.03485289934548094</v>
+      </c>
+      <c r="H86">
+        <v>0.0203720930993494</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.1225192885126728</v>
+        <v>0.1253003042541735</v>
       </c>
       <c r="C87">
-        <v>0.06501684063822219</v>
+        <v>-0.03177740916379851</v>
       </c>
       <c r="D87">
-        <v>0.06982948312395376</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.06668133583346181</v>
+      </c>
+      <c r="E87">
+        <v>-0.01844027303884974</v>
+      </c>
+      <c r="F87">
+        <v>0.01771355237434418</v>
+      </c>
+      <c r="G87">
+        <v>0.1207626884560511</v>
+      </c>
+      <c r="H87">
+        <v>0.05356594864234771</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.05342733925535238</v>
+        <v>0.0617167973592147</v>
       </c>
       <c r="C88">
-        <v>0.02794415391167651</v>
+        <v>-0.0176871455004662</v>
       </c>
       <c r="D88">
-        <v>0.02613892452798657</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.0377938795283329</v>
+      </c>
+      <c r="E88">
+        <v>-0.0162607739402399</v>
+      </c>
+      <c r="F88">
+        <v>0.01243121859551411</v>
+      </c>
+      <c r="G88">
+        <v>0.0144561885942893</v>
+      </c>
+      <c r="H88">
+        <v>-0.04824874256740547</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.09031964718832033</v>
+        <v>0.105412972120891</v>
       </c>
       <c r="C89">
-        <v>0.07092295809519801</v>
+        <v>-0.1105174798974449</v>
       </c>
       <c r="D89">
-        <v>-0.3328967882171082</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.3401826556404789</v>
+      </c>
+      <c r="E89">
+        <v>-0.07500359424200032</v>
+      </c>
+      <c r="F89">
+        <v>0.06748626199787625</v>
+      </c>
+      <c r="G89">
+        <v>-0.02681963255102119</v>
+      </c>
+      <c r="H89">
+        <v>-0.008788154092633903</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.07434661550348534</v>
+        <v>0.08495692952782238</v>
       </c>
       <c r="C90">
-        <v>0.06109886204045493</v>
+        <v>-0.0930482634344544</v>
       </c>
       <c r="D90">
-        <v>-0.2829854041969695</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.2821522411378219</v>
+      </c>
+      <c r="E90">
+        <v>-0.05405340057616366</v>
+      </c>
+      <c r="F90">
+        <v>0.03290945433502065</v>
+      </c>
+      <c r="G90">
+        <v>0.02473892696780628</v>
+      </c>
+      <c r="H90">
+        <v>0.01233542069619276</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.08864531712924519</v>
+        <v>0.09120405545922644</v>
       </c>
       <c r="C91">
-        <v>0.04867766611016501</v>
+        <v>-0.02770427018052209</v>
       </c>
       <c r="D91">
-        <v>0.0221926559160145</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.03160652337123768</v>
+      </c>
+      <c r="E91">
+        <v>-0.006652052926950903</v>
+      </c>
+      <c r="F91">
+        <v>0.0005418212001955576</v>
+      </c>
+      <c r="G91">
+        <v>-0.03621363569016019</v>
+      </c>
+      <c r="H91">
+        <v>-0.09610836406519774</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.07691698693973487</v>
+        <v>0.08762067805512044</v>
       </c>
       <c r="C92">
-        <v>0.07441764342520653</v>
+        <v>-0.1135050848542875</v>
       </c>
       <c r="D92">
-        <v>-0.3411954337834436</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.3373884536457849</v>
+      </c>
+      <c r="E92">
+        <v>-0.0488544821728513</v>
+      </c>
+      <c r="F92">
+        <v>0.03566503768114922</v>
+      </c>
+      <c r="G92">
+        <v>0.004648703068993044</v>
+      </c>
+      <c r="H92">
+        <v>-0.01632793383667167</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.06763755020658593</v>
+        <v>0.08165094429984648</v>
       </c>
       <c r="C93">
-        <v>0.06611446758303549</v>
+        <v>-0.1043337033983862</v>
       </c>
       <c r="D93">
-        <v>-0.2987040134550251</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.2976129540023754</v>
+      </c>
+      <c r="E93">
+        <v>-0.02726565001930593</v>
+      </c>
+      <c r="F93">
+        <v>0.02798257101895439</v>
+      </c>
+      <c r="G93">
+        <v>0.01522882248589135</v>
+      </c>
+      <c r="H93">
+        <v>0.01313641154716276</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.1342760599841952</v>
+        <v>0.1291695932082982</v>
       </c>
       <c r="C94">
-        <v>0.04181464909396752</v>
+        <v>-0.01005979792980993</v>
       </c>
       <c r="D94">
-        <v>0.04100457716903014</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.04891907442035165</v>
+      </c>
+      <c r="E94">
+        <v>0.0168629587323425</v>
+      </c>
+      <c r="F94">
+        <v>0.01658320239391646</v>
+      </c>
+      <c r="G94">
+        <v>-0.05635628114544781</v>
+      </c>
+      <c r="H94">
+        <v>-0.1192133449900131</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.1216177606069324</v>
+        <v>0.1290992726804899</v>
       </c>
       <c r="C95">
-        <v>0.02084380189349225</v>
+        <v>0.004528151579115049</v>
       </c>
       <c r="D95">
-        <v>0.05196975016857472</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.06040463919349725</v>
+      </c>
+      <c r="E95">
+        <v>-0.002189474161690623</v>
+      </c>
+      <c r="F95">
+        <v>0.04950872867780132</v>
+      </c>
+      <c r="G95">
+        <v>0.04562148759626402</v>
+      </c>
+      <c r="H95">
+        <v>0.07002986521088138</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,52 +3187,100 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B97">
-        <v>0.2164334866539063</v>
+        <v>0.1983299061022669</v>
       </c>
       <c r="C97">
-        <v>0.04156882626922912</v>
+        <v>0.001042021255617925</v>
       </c>
       <c r="D97">
-        <v>-0.09460856645201168</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>0.06970158670851842</v>
+      </c>
+      <c r="E97">
+        <v>0.1356230208391553</v>
+      </c>
+      <c r="F97">
+        <v>-0.9213359113591493</v>
+      </c>
+      <c r="G97">
+        <v>0.07439409545152592</v>
+      </c>
+      <c r="H97">
+        <v>0.01338747488589534</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.2449913169283493</v>
+        <v>0.2747500896524875</v>
       </c>
       <c r="C98">
-        <v>0.05438207212971851</v>
+        <v>-0.01740494847789217</v>
       </c>
       <c r="D98">
-        <v>0.0259216520207369</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.05075359906034553</v>
+      </c>
+      <c r="E98">
+        <v>0.1961324933801095</v>
+      </c>
+      <c r="F98">
+        <v>0.05761617575144846</v>
+      </c>
+      <c r="G98">
+        <v>-0.2701763115888023</v>
+      </c>
+      <c r="H98">
+        <v>0.1929282342939532</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B99">
-        <v>0.3930265967257411</v>
+        <v>0.259852809702906</v>
       </c>
       <c r="C99">
-        <v>-0.9013987334743566</v>
+        <v>0.9253269427628539</v>
       </c>
       <c r="D99">
-        <v>-0.06233861292850859</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>0.2065865498472766</v>
+      </c>
+      <c r="E99">
+        <v>-0.07122097016648696</v>
+      </c>
+      <c r="F99">
+        <v>0.05829871385128906</v>
+      </c>
+      <c r="G99">
+        <v>-0.01230170712439835</v>
+      </c>
+      <c r="H99">
+        <v>-0.07064760405195532</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,24 +3291,48 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>0.04352718104281695</v>
+        <v>0.04779584860078754</v>
       </c>
       <c r="C101">
-        <v>0.0290614241884032</v>
+        <v>-0.02377179891845252</v>
       </c>
       <c r="D101">
-        <v>0.009576387326784437</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.01130051820900828</v>
+      </c>
+      <c r="E101">
+        <v>-0.06266923162345529</v>
+      </c>
+      <c r="F101">
+        <v>0.01385582064677344</v>
+      </c>
+      <c r="G101">
+        <v>0.0004393232058243638</v>
+      </c>
+      <c r="H101">
+        <v>-0.07551589876724107</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +3343,22 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3369,22 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3393,18 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
